--- a/UnityProject/Assets/_Assets/GameData/Excel/DemoSheet2.xlsx
+++ b/UnityProject/Assets/_Assets/GameData/Excel/DemoSheet2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\Fork.BakingSheet\UnityProject\Assets\BakingSheet\Examples\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\Fork.BakingSheet\UnityProject\Assets\_Assets\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42992645-A8F5-4737-977D-EE8EA7756D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F697FB3-1305-4DE2-9EDE-E50CBF4FC14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11835" xr2:uid="{DC76DDDE-69AB-439C-9C63-233860D0694C}"/>
+    <workbookView xWindow="-25320" yWindow="1290" windowWidth="23790" windowHeight="11835" xr2:uid="{DC76DDDE-69AB-439C-9C63-233860D0694C}"/>
   </bookViews>
   <sheets>
     <sheet name="Demos2" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>ReleaseDate</t>
   </si>
   <si>
-    <t>Icon</t>
-  </si>
-  <si>
     <t>RefToSheet1</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>The valiant knight.</t>
   </si>
   <si>
-    <t>Icons/Knight</t>
-  </si>
-  <si>
     <t>SwordSlash</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>The sharp-eyed archer.</t>
   </si>
   <si>
-    <t>Icons/Archer</t>
-  </si>
-  <si>
     <t>ArrowShot</t>
   </si>
   <si>
@@ -135,6 +126,15 @@
   </si>
   <si>
     <t>MultiShot</t>
+  </si>
+  <si>
+    <t>Ava001</t>
+  </si>
+  <si>
+    <t>Ava002</t>
+  </si>
+  <si>
+    <t>IconAddr</t>
   </si>
 </sst>
 </file>
@@ -518,24 +518,23 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -561,36 +560,36 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
       <c r="D2">
         <v>150</v>
@@ -599,24 +598,24 @@
         <v>1.2</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1">
         <v>45066</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -628,12 +627,12 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>2500</v>
@@ -645,21 +644,21 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -668,24 +667,24 @@
         <v>1.8</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>45092</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>1200</v>
@@ -697,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
